--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797494.911695783</v>
+        <v>1795242.831984575</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>138.0402488768735</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361056</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335173</v>
       </c>
       <c r="W4" t="n">
-        <v>267.6696096242484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128.2538703177676</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067185</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.63807347850623</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>219.2998250672945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>34.98723076369706</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377027</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.019807611474048</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238265</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.34762173748897</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>220.8810568352115</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>22.10695458833728</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708016</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8624097380495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541111</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>120.6512573180088</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365847</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>213.7394996880296</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.8921037048567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711057</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>168.8794411822547</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>11.79076481679217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.54416032354752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>1.839588425939787</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>782.3358610545008</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4410,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.406259585337</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1178.820931986406</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C5" t="n">
-        <v>809.8584150459947</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.1640136694025</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C7" t="n">
-        <v>527.2278307414956</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>377.1111913291599</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>229.1980977467667</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>82.30815024885638</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643172</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8124784996422</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559525</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559525</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952775</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.4114536130581</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>714.4752706851513</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>564.3586312728155</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>416.4455376904224</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>269.555590192512</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>101.852753567231</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>101.852753567231</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484845</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1285.852497586828</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1065.059918443298</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2442.902671851499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2260.047837506404</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2040.446372529345</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873542</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792907</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622244</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343175</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3737171343175</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4606235519244</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>452.570676054014</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>285.374576768894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>143.662745611092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,19 +5829,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434698</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,10 +5914,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570816</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015257</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.41557511724</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.62299597371</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.5373202159245</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>821.6011372880176</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>671.4844978756819</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602302</v>
+        <v>1735.557557724325</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396415</v>
+        <v>1480.873069518438</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359455</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359455</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159245</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038312</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797713</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258103</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.4315576023</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.01438756534</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667322</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523792</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.73118040114</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1102.17222437491</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>881.3796452313798</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900017</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2445.104913453049</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092518</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.35543909864761</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>31.91821458107656</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.30341755403265</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.1398665102905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823553</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492601</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>25.78270532856034</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092234</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.44497470121456</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.93987647708059</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911018</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>117.6435571543363</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>205.6146855104961</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>179.1866975757048</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26451,7 +26451,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974659.390548776</v>
+        <v>-974659.3905487761</v>
       </c>
       <c r="C6" t="n">
         <v>354085.3551788165</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788162</v>
+        <v>354085.3551788165</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.0990126614</v>
+        <v>105257.3610872254</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200165</v>
+        <v>430669.8228945813</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200166</v>
+        <v>430669.8228945803</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="J6" t="n">
-        <v>213173.3584227391</v>
+        <v>213138.6204973035</v>
       </c>
       <c r="K6" t="n">
-        <v>430704.5608200165</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="L6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.822894581</v>
       </c>
       <c r="M6" t="n">
-        <v>345649.5328845044</v>
+        <v>345614.7949590689</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.8228945804</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200164</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200166</v>
+        <v>430669.8228945808</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.36975754866511e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.36975754866511e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.36975754866511e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>227.232642894134</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903107</v>
       </c>
       <c r="W4" t="n">
-        <v>18.85338871234262</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.479971345713</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554333</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>150.387734780522</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>162.6305450049673</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.36518964614103</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.36975754866511e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.36975754866511e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-5.36975754866511e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28804,16 +28804,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.271876816840848e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190042</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1848490935921</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359103</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745598</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36282,13 +36282,13 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>253.0508151715738</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096319</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.501032152577</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
